--- a/qa/01.测试用例/主界面/立绘对话系统测试用例.xlsx
+++ b/qa/01.测试用例/主界面/立绘对话系统测试用例.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -434,6 +434,33 @@
   </si>
   <si>
     <t>不出现对话</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2081</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1205,7 +1232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1356,6 +1383,12 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1364,9 +1397,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="136">
@@ -1507,331 +1537,7 @@
     <cellStyle name="好 2" xfId="78"/>
     <cellStyle name="检查单元格 2" xfId="24"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <b/>
@@ -2792,10 +2498,10 @@
     </row>
     <row r="8" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3100,7 +2806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:256" ht="33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>42397</v>
       </c>
@@ -3346,8 +3052,8 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3372,9 +3078,9 @@
       <c r="C1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" s="25" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -3503,7 +3209,12 @@
       <c r="G8" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42"/>
@@ -3515,7 +3226,12 @@
       <c r="G9" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="52"/>
+      <c r="H9" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D10" s="22">
@@ -3746,7 +3462,9 @@
       <c r="G24" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="21" t="s">
+        <v>110</v>
+      </c>
       <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3759,7 +3477,9 @@
       <c r="G25" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="21" t="s">
+        <v>110</v>
+      </c>
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3772,7 +3492,9 @@
       <c r="G26" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3785,7 +3507,9 @@
       <c r="G27" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="21"/>
+      <c r="H27" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3798,7 +3522,9 @@
       <c r="G28" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="21" t="s">
+        <v>110</v>
+      </c>
       <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3809,9 +3535,11 @@
         <v>96</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3824,7 +3552,9 @@
       <c r="G30" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3863,7 +3593,7 @@
     <row r="33" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="45"/>
       <c r="B33" s="45"/>
-      <c r="C33" s="63"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="45"/>
       <c r="F33" s="37" t="s">
         <v>68</v>
@@ -3890,7 +3620,9 @@
       <c r="G34" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="H34" s="50"/>
+      <c r="H34" s="50" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="35" spans="1:9" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A35" s="45"/>
@@ -3902,7 +3634,9 @@
       <c r="G35" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="50"/>
+      <c r="H35" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -3919,7 +3653,9 @@
       <c r="G36" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="50"/>
+      <c r="H36" s="60" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="37" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="45"/>
@@ -3930,7 +3666,9 @@
       <c r="G37" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="50"/>
+      <c r="H37" s="60" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="38" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="B38" s="45"/>
@@ -3946,7 +3684,9 @@
       <c r="G38" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="50"/>
+      <c r="H38" s="60" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="39" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="45"/>
@@ -3957,7 +3697,9 @@
       <c r="G39" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="50"/>
+      <c r="H39" s="60" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="40" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="B40" s="45"/>
@@ -3973,7 +3715,9 @@
       <c r="G40" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="50"/>
+      <c r="H40" s="60" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="41" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="45"/>
@@ -3984,7 +3728,9 @@
       <c r="G41" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="H41" s="50"/>
+      <c r="H41" s="60" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="42" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B42" s="45"/>
@@ -3996,83 +3742,91 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="K1:IS2 A1:B2 E2:J2 E1:H1 A3:H3 A13:H13 J13:IS13 A4:IS12 A20:H20 A16:J19 I32:J36 I38:J42 A21:G21 J20:J21 A14:IS15 A32:G35 A36:E36 A42:G42 A38:E41 A43:B1048576 C43:IS65347 K16:IS42 H32:H42 F36:G37 A22:J25 A26:F26 H26:J26 A27:J31">
-    <cfRule type="cellIs" dxfId="27" priority="126" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K1:IS2 A1:B2 E2:J2 E1:H1 A3:H3 A13:H13 J13:IS13 A4:IS7 A20:H20 A16:J19 I32:J36 I38:J42 A21:G21 J20:J21 A14:IS15 A32:G35 A36:E36 A42:G42 A38:E41 A43:B1048576 C43:IS65347 K16:IS42 F36:G37 A22:J25 A26:F26 H26:J26 A27:J28 A10:IS12 A8:H8 A9:G9 J8:IS9 H32:H42 A30:J31 A29:F29 H29:J29">
+    <cfRule type="cellIs" dxfId="33" priority="128" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="129" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="25" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="134" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="135" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="23" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="136" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="137" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:E37 J37">
-    <cfRule type="cellIs" dxfId="21" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="56" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="57" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:IS3">
-    <cfRule type="cellIs" dxfId="19" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="17" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F39">
-    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:G39">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F41">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:G41">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4080,11 +3834,13 @@
     <hyperlink ref="I13" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-266"/>
     <hyperlink ref="I20" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-267"/>
     <hyperlink ref="I21" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-267"/>
+    <hyperlink ref="I8" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-2081"/>
+    <hyperlink ref="I9" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-2081"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4527,34 +4283,34 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H9:H13 H22:H65429 H1:H6">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H21">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
